--- a/data/trans_orig/P2A_psíq_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P2A_psíq_R-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>4915</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1859</v>
+        <v>1874</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10000</v>
+        <v>11696</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.007081634970375568</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002678002295030352</v>
+        <v>0.002699587046374144</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01440871820957257</v>
+        <v>0.0168528243250919</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -768,16 +768,16 @@
         <v>953</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7822</v>
+        <v>8740</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.004291832233856875</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001384096489353878</v>
+        <v>0.001384068425229842</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01136374264280481</v>
+        <v>0.01269770389848716</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -786,19 +786,19 @@
         <v>7869</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3050</v>
+        <v>3694</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14953</v>
+        <v>14991</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.005692446045922965</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002206135947484893</v>
+        <v>0.002672223074333961</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01081729765125354</v>
+        <v>0.0108442706980791</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>689097</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>684012</v>
+        <v>682316</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>692153</v>
+        <v>692138</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9929183650296244</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9855912817904274</v>
+        <v>0.9831471756749078</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9973219977049697</v>
+        <v>0.9973004129536258</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>693</v>
@@ -836,7 +836,7 @@
         <v>685397</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>680529</v>
+        <v>679611</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>687398</v>
@@ -845,10 +845,10 @@
         <v>0.9957081677661431</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9886362573571952</v>
+        <v>0.9873022961015128</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9986159035106461</v>
+        <v>0.9986159315747701</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1371</v>
@@ -857,19 +857,19 @@
         <v>1374494</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1367410</v>
+        <v>1367372</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1379313</v>
+        <v>1378669</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.994307553954077</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9891827023487464</v>
+        <v>0.989155729301921</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9977938640525151</v>
+        <v>0.997327776925666</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>11944</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6276</v>
+        <v>5888</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22437</v>
+        <v>20462</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0124181708240298</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.006524964684190679</v>
+        <v>0.006121648750819728</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02332769101195283</v>
+        <v>0.02127436224722483</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>11</v>
@@ -982,19 +982,19 @@
         <v>11385</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5862</v>
+        <v>6026</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21098</v>
+        <v>20654</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01175656711567359</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.006052884565282447</v>
+        <v>0.006222438523997162</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02178618603645716</v>
+        <v>0.02132807769426868</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>22</v>
@@ -1003,19 +1003,19 @@
         <v>23329</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>14828</v>
+        <v>14798</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>36052</v>
+        <v>35374</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0120862390341178</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.007681998252526325</v>
+        <v>0.00766663251477757</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0186781360971461</v>
+        <v>0.01832684254693917</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>949856</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>939363</v>
+        <v>941338</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>955524</v>
+        <v>955912</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9875818291759701</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.976672308988046</v>
+        <v>0.9787256377527752</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9934750353158093</v>
+        <v>0.9938783512491803</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>897</v>
@@ -1053,19 +1053,19 @@
         <v>957008</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>947295</v>
+        <v>947739</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>962531</v>
+        <v>962367</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9882434328843264</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9782138139635428</v>
+        <v>0.9786719223057314</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9939471154347175</v>
+        <v>0.9937775614760028</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1782</v>
@@ -1074,19 +1074,19 @@
         <v>1906864</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1894141</v>
+        <v>1894819</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1915365</v>
+        <v>1915395</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9879137609658822</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9813218639028531</v>
+        <v>0.9816731574530602</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9923180017474736</v>
+        <v>0.9923333674852222</v>
       </c>
     </row>
     <row r="9">
@@ -1181,16 +1181,16 @@
         <v>982</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10170</v>
+        <v>10638</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005562152227517572</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001447902950731</v>
+        <v>0.001447651586171843</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01498843424655903</v>
+        <v>0.01567872328611446</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -1199,19 +1199,19 @@
         <v>12886</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6950</v>
+        <v>6862</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21419</v>
+        <v>20503</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0188439625923801</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01016339117349515</v>
+        <v>0.01003467587933335</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03132089833689484</v>
+        <v>0.02998144551850803</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>16</v>
@@ -1220,19 +1220,19 @@
         <v>16660</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9549</v>
+        <v>10141</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>26264</v>
+        <v>28161</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01222904934484325</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007009156757155958</v>
+        <v>0.00744395048580975</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01927819161540789</v>
+        <v>0.02067101120871674</v>
       </c>
     </row>
     <row r="11">
@@ -1249,7 +1249,7 @@
         <v>674735</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>668339</v>
+        <v>667871</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>677527</v>
@@ -1258,10 +1258,10 @@
         <v>0.9944378477724825</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9850115657534405</v>
+        <v>0.9843212767138855</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9985520970492691</v>
+        <v>0.9985523484138281</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>683</v>
@@ -1270,19 +1270,19 @@
         <v>670955</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>662422</v>
+        <v>663338</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>676891</v>
+        <v>676979</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9811560374076199</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9686791016631056</v>
+        <v>0.970018554481492</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9898366088265049</v>
+        <v>0.9899653241206667</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1321</v>
@@ -1291,19 +1291,19 @@
         <v>1345690</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1336086</v>
+        <v>1334189</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1352801</v>
+        <v>1352209</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9877709506551567</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.980721808384592</v>
+        <v>0.9793289887912832</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.992990843242844</v>
+        <v>0.9925560495141902</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>9108</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4123</v>
+        <v>4255</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17901</v>
+        <v>17576</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.00966684941746639</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00437569691478475</v>
+        <v>0.0045155513482605</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01899848324929345</v>
+        <v>0.01865335005383986</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -1416,19 +1416,19 @@
         <v>12250</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6992</v>
+        <v>6802</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>21528</v>
+        <v>21501</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01179464153940519</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.006731857248540129</v>
+        <v>0.006548796951196406</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02072720383747722</v>
+        <v>0.02070133536001606</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>21</v>
@@ -1437,19 +1437,19 @@
         <v>21358</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13218</v>
+        <v>13500</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>32609</v>
+        <v>34014</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01078251601384353</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.006672852784792257</v>
+        <v>0.00681530218593337</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01646218549636996</v>
+        <v>0.0171713896083386</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>933114</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>924321</v>
+        <v>924646</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>938099</v>
+        <v>937967</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9903331505825336</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9810015167507067</v>
+        <v>0.9813466499461602</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9956243030852153</v>
+        <v>0.9954844486517396</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>985</v>
@@ -1487,19 +1487,19 @@
         <v>1026362</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1017084</v>
+        <v>1017111</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1031620</v>
+        <v>1031810</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9882053584605948</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9792727961625235</v>
+        <v>0.9792986646399839</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.99326814275146</v>
+        <v>0.9934512030488035</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1970</v>
@@ -1508,19 +1508,19 @@
         <v>1959476</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1948225</v>
+        <v>1946820</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1967616</v>
+        <v>1967334</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9892174839861565</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9835378145036301</v>
+        <v>0.9828286103916615</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9933271472152078</v>
+        <v>0.9931846978140666</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>29741</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>18693</v>
+        <v>19663</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>42163</v>
+        <v>42984</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.009076891393513425</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005705235316426005</v>
+        <v>0.00600103325406212</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0128682468468541</v>
+        <v>0.01311863160486967</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>39</v>
@@ -1633,19 +1633,19 @@
         <v>39476</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>27964</v>
+        <v>28681</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>53970</v>
+        <v>54422</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01168194555370886</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.008275318145812454</v>
+        <v>0.00848755459349949</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01597138575777369</v>
+        <v>0.01610494862382915</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>67</v>
@@ -1654,19 +1654,19 @@
         <v>69216</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>54798</v>
+        <v>53023</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>88719</v>
+        <v>87427</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01039950783791335</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008233181728571208</v>
+        <v>0.0079664480163226</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01332964997505975</v>
+        <v>0.01313559146719461</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3246802</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3234380</v>
+        <v>3233559</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3257850</v>
+        <v>3256880</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9909231086064866</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9871317531531463</v>
+        <v>0.9868813683951304</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9942947646835746</v>
+        <v>0.9939989667459381</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3258</v>
@@ -1704,19 +1704,19 @@
         <v>3339721</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3325227</v>
+        <v>3324775</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3351233</v>
+        <v>3350516</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9883180544462912</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9840286142422263</v>
+        <v>0.9838950513761708</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9917246818541876</v>
+        <v>0.9915124454065006</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6444</v>
@@ -1725,19 +1725,19 @@
         <v>6586525</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6567022</v>
+        <v>6568314</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6600943</v>
+        <v>6602718</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9896004921620867</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9866703500249402</v>
+        <v>0.9868644085328053</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9917668182714288</v>
+        <v>0.9920335519836774</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>18201</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10782</v>
+        <v>10279</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>31773</v>
+        <v>30211</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02587250440819216</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01532681102969498</v>
+        <v>0.01461203476820223</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04516596890332887</v>
+        <v>0.04294639934839149</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>20</v>
@@ -2090,19 +2090,19 @@
         <v>21253</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13400</v>
+        <v>13649</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>33386</v>
+        <v>32463</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0304900775585393</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0192240191176143</v>
+        <v>0.01958166529940087</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04789655875063736</v>
+        <v>0.04657170548076504</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>34</v>
@@ -2111,19 +2111,19 @@
         <v>39454</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>27951</v>
+        <v>27267</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>55399</v>
+        <v>54654</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02817070915338913</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01995742880962292</v>
+        <v>0.01946944662357763</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03955620359330323</v>
+        <v>0.03902384446273963</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>685268</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>671696</v>
+        <v>673258</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>692687</v>
+        <v>693190</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9741274955918079</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9548340310966718</v>
+        <v>0.9570536006516077</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9846731889703051</v>
+        <v>0.9853879652317972</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>630</v>
@@ -2161,19 +2161,19 @@
         <v>675797</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>663664</v>
+        <v>664587</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>683650</v>
+        <v>683401</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9695099224414607</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9521034412493624</v>
+        <v>0.9534282945192349</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9807759808823856</v>
+        <v>0.9804183347005989</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1290</v>
@@ -2182,19 +2182,19 @@
         <v>1361065</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1345120</v>
+        <v>1345865</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1372568</v>
+        <v>1373252</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9718292908466108</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9604437964066965</v>
+        <v>0.9609761555372602</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9800425711903771</v>
+        <v>0.9805305533764224</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>15665</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8647</v>
+        <v>8674</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24401</v>
+        <v>24551</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0153890179848301</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.008494748064632398</v>
+        <v>0.008520784645090271</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02397040707946996</v>
+        <v>0.0241179082147072</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>17</v>
@@ -2307,19 +2307,19 @@
         <v>18547</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10959</v>
+        <v>11782</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>29346</v>
+        <v>29003</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01796825205308141</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01061681221812968</v>
+        <v>0.01141462798344002</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02843094401360203</v>
+        <v>0.02809830877059753</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>32</v>
@@ -2328,19 +2328,19 @@
         <v>34212</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>23688</v>
+        <v>24616</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>48999</v>
+        <v>48106</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01668759060142621</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01155458243559515</v>
+        <v>0.01200694436935193</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0239005511673036</v>
+        <v>0.0234650002625901</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>1002282</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>993546</v>
+        <v>993396</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1009300</v>
+        <v>1009273</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9846109820151699</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9760295929205304</v>
+        <v>0.9758820917852927</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9915052519353676</v>
+        <v>0.9914792153549092</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>923</v>
@@ -2378,19 +2378,19 @@
         <v>1013637</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1002838</v>
+        <v>1003181</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1021225</v>
+        <v>1020402</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9820317479469186</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9715690559863981</v>
+        <v>0.9719016912294025</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9893831877818703</v>
+        <v>0.9885853720165599</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1844</v>
@@ -2399,19 +2399,19 @@
         <v>2015919</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2001132</v>
+        <v>2002025</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2026443</v>
+        <v>2025515</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9833124093985738</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9760994488326963</v>
+        <v>0.9765349997374101</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9884454175644048</v>
+        <v>0.987993055630648</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>8331</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3173</v>
+        <v>3169</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18003</v>
+        <v>17600</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01099630481885613</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004188682844936933</v>
+        <v>0.004182282012733453</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02376193376056819</v>
+        <v>0.02323089237498544</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -2524,19 +2524,19 @@
         <v>9138</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4123</v>
+        <v>4111</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16412</v>
+        <v>16342</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01175781924141269</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0053053983368104</v>
+        <v>0.00529014507869025</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02111794619115001</v>
+        <v>0.02102796016229333</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>16</v>
@@ -2545,19 +2545,19 @@
         <v>17469</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>11123</v>
+        <v>10990</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>29411</v>
+        <v>27422</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01138191222556282</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007247489446101499</v>
+        <v>0.007160638030113822</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01916299736660407</v>
+        <v>0.01786664906294314</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>749292</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>739620</v>
+        <v>740023</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>754450</v>
+        <v>754454</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9890036951811438</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.976238066239431</v>
+        <v>0.9767691076250145</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.995811317155063</v>
+        <v>0.9958177179872665</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>696</v>
@@ -2595,19 +2595,19 @@
         <v>768036</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>760762</v>
+        <v>760832</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>773051</v>
+        <v>773063</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9882421807585873</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.97888205380885</v>
+        <v>0.9789720398377066</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9946946016631896</v>
+        <v>0.9947098549213097</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1378</v>
@@ -2616,19 +2616,19 @@
         <v>1517328</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1505386</v>
+        <v>1507375</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1523674</v>
+        <v>1523807</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9886180877744372</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9808370026333961</v>
+        <v>0.9821333509370569</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9927525105538986</v>
+        <v>0.9928393619698862</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>21314</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13242</v>
+        <v>12414</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>34013</v>
+        <v>32851</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0224898181111891</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01397202528798528</v>
+        <v>0.01309860065315577</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03588859346181275</v>
+        <v>0.03466207832957224</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>23</v>
@@ -2741,19 +2741,19 @@
         <v>25277</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>16566</v>
+        <v>17093</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>37029</v>
+        <v>38660</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02403008371606882</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01574859858078082</v>
+        <v>0.01624915701739234</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03520229892759801</v>
+        <v>0.03675267932637476</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>42</v>
@@ -2762,19 +2762,19 @@
         <v>46592</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>34295</v>
+        <v>33191</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>61328</v>
+        <v>61264</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02330006727338679</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01715048245843529</v>
+        <v>0.01659863304436193</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03066931707330341</v>
+        <v>0.03063755686562749</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>926425</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>913726</v>
+        <v>914888</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>934497</v>
+        <v>935325</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9775101818888109</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9641114065381873</v>
+        <v>0.9653379216704278</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9860279747120148</v>
+        <v>0.9869013993468443</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>980</v>
@@ -2812,19 +2812,19 @@
         <v>1026624</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1014872</v>
+        <v>1013241</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1035335</v>
+        <v>1034808</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9759699162839311</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9647977010724019</v>
+        <v>0.9632473206736253</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9842514014192192</v>
+        <v>0.9837508429826077</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1871</v>
@@ -2833,19 +2833,19 @@
         <v>1953048</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1938312</v>
+        <v>1938376</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1965345</v>
+        <v>1966449</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9766999327266132</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9693306829266966</v>
+        <v>0.9693624431343725</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9828495175415647</v>
+        <v>0.983401366955638</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>63511</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>48484</v>
+        <v>49403</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>80978</v>
+        <v>83681</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01853380618876922</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01414848680079595</v>
+        <v>0.01441671680108737</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02363104247314323</v>
+        <v>0.02441980234409478</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>69</v>
@@ -2958,19 +2958,19 @@
         <v>74215</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>57485</v>
+        <v>57570</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>92778</v>
+        <v>92791</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02085675847881449</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01615517333972397</v>
+        <v>0.01617893488136041</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02607362106024681</v>
+        <v>0.02607739144409229</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>124</v>
@@ -2979,19 +2979,19 @@
         <v>137726</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>112506</v>
+        <v>114068</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>160606</v>
+        <v>164095</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01971715309957937</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01610657048224176</v>
+        <v>0.01633018091644395</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02299264258588515</v>
+        <v>0.02349212333342974</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3363268</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3345801</v>
+        <v>3343098</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3378295</v>
+        <v>3377376</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9814661938112308</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9763689575268567</v>
+        <v>0.9755801976559053</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9858515131992041</v>
+        <v>0.9855832831989126</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3229</v>
@@ -3029,19 +3029,19 @@
         <v>3484094</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3465531</v>
+        <v>3465518</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3500824</v>
+        <v>3500739</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9791432415211855</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9739263789397536</v>
+        <v>0.9739226085559071</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9838448266602764</v>
+        <v>0.9838210651186395</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6383</v>
@@ -3050,19 +3050,19 @@
         <v>6847362</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6824482</v>
+        <v>6820993</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6872582</v>
+        <v>6871020</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9802828469004207</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9770073574141148</v>
+        <v>0.9765078766665701</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9838934295177583</v>
+        <v>0.983669819083556</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>6974</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3018</v>
+        <v>2973</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14151</v>
+        <v>13358</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01033532149725374</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004472439843260483</v>
+        <v>0.004405011587692499</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02097113638340535</v>
+        <v>0.01979505758214907</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -3415,19 +3415,19 @@
         <v>8082</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3870</v>
+        <v>3830</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15467</v>
+        <v>15594</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01201247301481388</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00575150003683398</v>
+        <v>0.005692153218098575</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02298826073548935</v>
+        <v>0.02317628678345798</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>15</v>
@@ -3436,19 +3436,19 @@
         <v>15057</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8770</v>
+        <v>8952</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>23540</v>
+        <v>23922</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01117267701181471</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006507965990584518</v>
+        <v>0.006642623483898205</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01746743054577789</v>
+        <v>0.01775079738891103</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>667826</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>660649</v>
+        <v>661442</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>671782</v>
+        <v>671827</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9896646785027463</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9790288636165946</v>
+        <v>0.9802049424178509</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9955275601567395</v>
+        <v>0.9955949884123074</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>658</v>
@@ -3486,19 +3486,19 @@
         <v>664757</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>657372</v>
+        <v>657245</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>668969</v>
+        <v>669009</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9879875269851861</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9770117392645102</v>
+        <v>0.976823713216542</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.994248499963166</v>
+        <v>0.9943078467819015</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1303</v>
@@ -3507,19 +3507,19 @@
         <v>1332582</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1324099</v>
+        <v>1323717</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1338869</v>
+        <v>1338687</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9888273229881853</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9825325694542217</v>
+        <v>0.9822492026110891</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9934920340094154</v>
+        <v>0.9933573765161018</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>12782</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6366</v>
+        <v>6712</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>21945</v>
+        <v>21978</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01250203582251131</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.006226245275730042</v>
+        <v>0.006565047129687012</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02146366806737467</v>
+        <v>0.02149546965473667</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>15</v>
@@ -3632,19 +3632,19 @@
         <v>16502</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9548</v>
+        <v>9222</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>26026</v>
+        <v>27473</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0158234501841605</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.009154872242423437</v>
+        <v>0.008842429786406317</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02495534710772172</v>
+        <v>0.02634287338525371</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>26</v>
@@ -3653,19 +3653,19 @@
         <v>29285</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>20308</v>
+        <v>19173</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>43115</v>
+        <v>43308</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01417921223145589</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.009832723356222629</v>
+        <v>0.009283054829974094</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02087550849185961</v>
+        <v>0.02096909752100081</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>1009649</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1000486</v>
+        <v>1000453</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1016065</v>
+        <v>1015719</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9874979641774887</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9785363319326249</v>
+        <v>0.9785045303452633</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9937737547242698</v>
+        <v>0.9934349528703129</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>962</v>
@@ -3703,19 +3703,19 @@
         <v>1026411</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1016887</v>
+        <v>1015440</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1033365</v>
+        <v>1033691</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9841765498158395</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9750446528922784</v>
+        <v>0.9736571266147463</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9908451277575767</v>
+        <v>0.9911575702135937</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1902</v>
@@ -3724,19 +3724,19 @@
         <v>2036059</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2022229</v>
+        <v>2022036</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2045036</v>
+        <v>2046171</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9858207877685441</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9791244915081402</v>
+        <v>0.9790309024789989</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9901672766437773</v>
+        <v>0.9907169451700257</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>4537</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1127</v>
+        <v>1190</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11183</v>
+        <v>10634</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005972682625586212</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001484267387953416</v>
+        <v>0.001566349392941336</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01472353120034302</v>
+        <v>0.0140005585825965</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -3849,19 +3849,19 @@
         <v>8898</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4037</v>
+        <v>3794</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17716</v>
+        <v>17047</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01133444692941517</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.005142640535635344</v>
+        <v>0.004832941969458748</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02256797022266748</v>
+        <v>0.02171530052375212</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -3870,19 +3870,19 @@
         <v>13434</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7382</v>
+        <v>6874</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>23048</v>
+        <v>23187</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.008697753059420775</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004779257839174998</v>
+        <v>0.004450171025305197</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01492182582541137</v>
+        <v>0.01501208212462464</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>755015</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>748369</v>
+        <v>748918</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>758425</v>
+        <v>758362</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9940273173744137</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.985276468799657</v>
+        <v>0.9859994414174035</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9985157326120466</v>
+        <v>0.9984336506070594</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>728</v>
@@ -3920,19 +3920,19 @@
         <v>776113</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>767295</v>
+        <v>767964</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>780974</v>
+        <v>781217</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9886655530705848</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9774320297773325</v>
+        <v>0.9782846994762479</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9948573594643646</v>
+        <v>0.9951670580305413</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1420</v>
@@ -3941,19 +3941,19 @@
         <v>1531129</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1521515</v>
+        <v>1521376</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1537181</v>
+        <v>1537689</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9913022469405792</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9850781741745888</v>
+        <v>0.9849879178753752</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9952207421608251</v>
+        <v>0.9955498289746948</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>7608</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3657</v>
+        <v>2932</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>15516</v>
+        <v>14296</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.008114733560386844</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003901024331692874</v>
+        <v>0.003126775899452624</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01654876304531813</v>
+        <v>0.01524834946521277</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>21</v>
@@ -4066,19 +4066,19 @@
         <v>23806</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>15169</v>
+        <v>15222</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>37280</v>
+        <v>36141</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02280738873183539</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01453250239130525</v>
+        <v>0.01458329400883668</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03571615488605445</v>
+        <v>0.03462537523662535</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>29</v>
@@ -4087,19 +4087,19 @@
         <v>31414</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>19678</v>
+        <v>21924</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>44092</v>
+        <v>45809</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01585486830568943</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.00993161835428282</v>
+        <v>0.0110652133094145</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02225337775376239</v>
+        <v>0.02312023070308981</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>929959</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>922051</v>
+        <v>923271</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>933910</v>
+        <v>934635</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9918852664396132</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9834512369546818</v>
+        <v>0.9847516505347872</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9960989756683071</v>
+        <v>0.9968732241005475</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>938</v>
@@ -4137,19 +4137,19 @@
         <v>1019973</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1006499</v>
+        <v>1007638</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1028610</v>
+        <v>1028557</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9771926112681646</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9642838451139453</v>
+        <v>0.9653746247633749</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9854674976086947</v>
+        <v>0.9854167059911634</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1862</v>
@@ -4158,19 +4158,19 @@
         <v>1949932</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1937254</v>
+        <v>1935537</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1961668</v>
+        <v>1959422</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9841451316943106</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9777466222462375</v>
+        <v>0.97687976929691</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.990068381645717</v>
+        <v>0.9889347866905853</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>31901</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>21892</v>
+        <v>22211</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>45617</v>
+        <v>45394</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.009398386170788718</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006449653830936497</v>
+        <v>0.006543443127661691</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01343922874201816</v>
+        <v>0.01337330100080003</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>52</v>
@@ -4283,19 +4283,19 @@
         <v>57288</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>43484</v>
+        <v>43116</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>74414</v>
+        <v>75301</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01616244951944801</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01226777890256199</v>
+        <v>0.01216397157713051</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02099387039241698</v>
+        <v>0.02124415780359296</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>82</v>
@@ -4304,19 +4304,19 @@
         <v>89190</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>71530</v>
+        <v>69880</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>110204</v>
+        <v>109409</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01285362159469058</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01030852208111172</v>
+        <v>0.01007083777544465</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01588208482769213</v>
+        <v>0.01576749351607956</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3362449</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3348733</v>
+        <v>3348956</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3372458</v>
+        <v>3372139</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9906016138292113</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9865607712579817</v>
+        <v>0.9866266989991999</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9935503461690635</v>
+        <v>0.9934565568723384</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3286</v>
@@ -4354,19 +4354,19 @@
         <v>3487254</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3470128</v>
+        <v>3469241</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3501058</v>
+        <v>3501426</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.983837550480552</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.979006129607583</v>
+        <v>0.9787558421964071</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.987732221097438</v>
+        <v>0.9878360284228694</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6487</v>
@@ -4375,19 +4375,19 @@
         <v>6849702</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6828688</v>
+        <v>6829483</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6867362</v>
+        <v>6869012</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9871463784053094</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9841179151723076</v>
+        <v>0.9842325064839206</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9896914779188882</v>
+        <v>0.9899291622245554</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>7368</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3628</v>
+        <v>3453</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14276</v>
+        <v>14148</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01066684723339133</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005252156432863661</v>
+        <v>0.00499873051695333</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02066858985218178</v>
+        <v>0.02048317136996273</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>32</v>
@@ -4740,19 +4740,19 @@
         <v>18963</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13095</v>
+        <v>13421</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>27216</v>
+        <v>27515</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02582929426464853</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01783683820938985</v>
+        <v>0.0182808067945986</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03707037307620337</v>
+        <v>0.0374770706899597</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>42</v>
@@ -4761,19 +4761,19 @@
         <v>26331</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>19135</v>
+        <v>19244</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>36895</v>
+        <v>36089</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01847935723416365</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01342890742936315</v>
+        <v>0.01350554567864072</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02589330987731281</v>
+        <v>0.02532779772668335</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>683342</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>676434</v>
+        <v>676562</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>687082</v>
+        <v>687257</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9893331527666088</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9793314101478184</v>
+        <v>0.9795168286300372</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9947478435671364</v>
+        <v>0.9950012694830465</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1209</v>
@@ -4811,19 +4811,19 @@
         <v>715217</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>706964</v>
+        <v>706665</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>721085</v>
+        <v>720759</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9741707057353514</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9629296269237968</v>
+        <v>0.9625229293100405</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9821631617906103</v>
+        <v>0.9817191932054015</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1929</v>
@@ -4832,19 +4832,19 @@
         <v>1398558</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1387994</v>
+        <v>1388800</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1405754</v>
+        <v>1405645</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9815206427658366</v>
+        <v>0.9815206427658363</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9741066901226877</v>
+        <v>0.974672202273317</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.986571092570637</v>
+        <v>0.9864944543213592</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>19986</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12284</v>
+        <v>12467</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31279</v>
+        <v>31419</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01905441159716018</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0117110713968675</v>
+        <v>0.01188586350829079</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02981983085856512</v>
+        <v>0.02995404455054218</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>45</v>
@@ -4957,19 +4957,19 @@
         <v>29737</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>22066</v>
+        <v>22212</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>40620</v>
+        <v>41052</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02775381142390335</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02059401433918365</v>
+        <v>0.02073049233859993</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03791067392621417</v>
+        <v>0.03831311236343572</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>65</v>
@@ -4978,19 +4978,19 @@
         <v>49724</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>38848</v>
+        <v>38245</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>65809</v>
+        <v>63851</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02345038450758572</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01832121960850928</v>
+        <v>0.01803658618990578</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03103620584466588</v>
+        <v>0.03011283713880845</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>1028931</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1017638</v>
+        <v>1017498</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1036633</v>
+        <v>1036450</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.98094558840284</v>
+        <v>0.9809455884028399</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9701801691414349</v>
+        <v>0.9700459554494578</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9882889286031323</v>
+        <v>0.9881141364917092</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1472</v>
@@ -5028,19 +5028,19 @@
         <v>1041737</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1030854</v>
+        <v>1030422</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1049408</v>
+        <v>1049262</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9722461885760966</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9620893260737862</v>
+        <v>0.9616868876365645</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9794059856608164</v>
+        <v>0.9792695076614002</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2416</v>
@@ -5049,19 +5049,19 @@
         <v>2070667</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2054582</v>
+        <v>2056540</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2081543</v>
+        <v>2082146</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9765496154924143</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.968963794155334</v>
+        <v>0.9698871628611915</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9816787803914908</v>
+        <v>0.9819634138100943</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>24730</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15027</v>
+        <v>15371</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>37304</v>
+        <v>37656</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03079386374124267</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01871190090021713</v>
+        <v>0.01914031669962624</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04645107222127338</v>
+        <v>0.04688994088038078</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>31</v>
@@ -5174,19 +5174,19 @@
         <v>28685</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19005</v>
+        <v>18490</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>42145</v>
+        <v>41506</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03531549477285258</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02339800742072481</v>
+        <v>0.02276349607485614</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0518865128255411</v>
+        <v>0.05109943446360552</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>53</v>
@@ -5195,19 +5195,19 @@
         <v>53415</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>40648</v>
+        <v>40514</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>71390</v>
+        <v>70899</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03306753553666805</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02516366104877033</v>
+        <v>0.02508110313266553</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04419532906761339</v>
+        <v>0.04389109172464197</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>778343</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>765769</v>
+        <v>765417</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>788046</v>
+        <v>787702</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9692061362587574</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9535489277787267</v>
+        <v>0.9531100591196193</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9812880990997829</v>
+        <v>0.9808596833003737</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1016</v>
@@ -5245,19 +5245,19 @@
         <v>783574</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>770114</v>
+        <v>770753</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>793254</v>
+        <v>793769</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9646845052271474</v>
+        <v>0.9646845052271473</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9481134871744591</v>
+        <v>0.9489005655363949</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9766019925792753</v>
+        <v>0.9772365039251441</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1670</v>
@@ -5266,19 +5266,19 @@
         <v>1561917</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1543942</v>
+        <v>1544433</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1574684</v>
+        <v>1574818</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9669324644633319</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9558046709323864</v>
+        <v>0.9561089082753579</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9748363389512295</v>
+        <v>0.9749188968673346</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>29014</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>19590</v>
+        <v>19296</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>44684</v>
+        <v>42141</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02930495138794584</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01978705534502251</v>
+        <v>0.01948982677926634</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04513274203881622</v>
+        <v>0.04256404189634087</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>52</v>
@@ -5391,19 +5391,19 @@
         <v>36774</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>27436</v>
+        <v>27168</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>48107</v>
+        <v>47477</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03286204704228377</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02451757074944353</v>
+        <v>0.02427806090203392</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04298937350173858</v>
+        <v>0.04242640955216519</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>82</v>
@@ -5412,19 +5412,19 @@
         <v>65788</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>51687</v>
+        <v>51170</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>83669</v>
+        <v>82160</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.03119226371675657</v>
+        <v>0.03119226371675658</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02450655401218079</v>
+        <v>0.0242613146759408</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03967040547003892</v>
+        <v>0.03895476128503068</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>961048</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>945378</v>
+        <v>947921</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>970472</v>
+        <v>970766</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9706950486120541</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9548672579611835</v>
+        <v>0.9574359581036591</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9802129446549775</v>
+        <v>0.9805101732207339</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1510</v>
@@ -5462,19 +5462,19 @@
         <v>1082267</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1070934</v>
+        <v>1071564</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1091605</v>
+        <v>1091873</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9671379529577163</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9570106264982613</v>
+        <v>0.957573590447835</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9754824292505566</v>
+        <v>0.9757219390979662</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2486</v>
@@ -5483,19 +5483,19 @@
         <v>2043316</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2025435</v>
+        <v>2026944</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2057417</v>
+        <v>2057934</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9688077362832435</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9603295945299629</v>
+        <v>0.9610452387149692</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9754934459878196</v>
+        <v>0.9757386853240589</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>81098</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>64675</v>
+        <v>62537</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>103965</v>
+        <v>101049</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02295587409613958</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01830734087384408</v>
+        <v>0.01770195208783682</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02942885082304101</v>
+        <v>0.02860337970124353</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>160</v>
@@ -5608,19 +5608,19 @@
         <v>114160</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>97112</v>
+        <v>96049</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>134355</v>
+        <v>132798</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.03054898305467278</v>
+        <v>0.03054898305467277</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02598682349423515</v>
+        <v>0.02570243198526822</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03595319962307084</v>
+        <v>0.03553649131119944</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>242</v>
@@ -5629,19 +5629,19 @@
         <v>195258</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>173127</v>
+        <v>170470</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>226119</v>
+        <v>223580</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.02685906644448946</v>
+        <v>0.02685906644448947</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02381487431369245</v>
+        <v>0.02344928920123319</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03110430454993354</v>
+        <v>0.03075495177229562</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3451664</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3428797</v>
+        <v>3431713</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3468087</v>
+        <v>3470225</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9770441259038606</v>
+        <v>0.9770441259038605</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9705711491769587</v>
+        <v>0.9713966202987564</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9816926591261556</v>
+        <v>0.9822980479121628</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5207</v>
@@ -5679,19 +5679,19 @@
         <v>3622794</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3602599</v>
+        <v>3604156</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3639842</v>
+        <v>3640905</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9694510169453275</v>
+        <v>0.9694510169453272</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9640468003769294</v>
+        <v>0.9644635086888002</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9740131765057651</v>
+        <v>0.9742975680147318</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8501</v>
@@ -5700,19 +5700,19 @@
         <v>7074458</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7043597</v>
+        <v>7046136</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7096589</v>
+        <v>7099246</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9731409335555105</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9688956954500664</v>
+        <v>0.9692450482277039</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9761851256863076</v>
+        <v>0.9765507107987668</v>
       </c>
     </row>
     <row r="18">
